--- a/SensitivityAnalysisSpreadSheets/Holdback Bar Time/HoldbackBarTime10 Aircraft 9_1_-50%.xlsx
+++ b/SensitivityAnalysisSpreadSheets/Holdback Bar Time/HoldbackBarTime10 Aircraft 9_1_-50%.xlsx
@@ -73323,6 +73323,9 @@
           <t>Run 1</t>
         </is>
       </c>
+      <c r="B2" t="n">
+        <v>12.61316666666667</v>
+      </c>
       <c r="C2" t="n">
         <v>435.4038888888889</v>
       </c>
@@ -73378,6 +73381,9 @@
           <t>Run 2</t>
         </is>
       </c>
+      <c r="B3" t="n">
+        <v>12.713</v>
+      </c>
       <c r="C3" t="n">
         <v>421.0755555555556</v>
       </c>
@@ -73433,6 +73439,9 @@
           <t>Run 3</t>
         </is>
       </c>
+      <c r="B4" t="n">
+        <v>14.49733333333333</v>
+      </c>
       <c r="C4" t="n">
         <v>467.0227777777778</v>
       </c>
@@ -73488,6 +73497,9 @@
           <t>Run 4</t>
         </is>
       </c>
+      <c r="B5" t="n">
+        <v>13.4535</v>
+      </c>
       <c r="C5" t="n">
         <v>455.6922222222222</v>
       </c>
@@ -73543,6 +73555,9 @@
           <t>Run 5</t>
         </is>
       </c>
+      <c r="B6" t="n">
+        <v>14.08866666666667</v>
+      </c>
       <c r="C6" t="n">
         <v>458.2194444444443</v>
       </c>
@@ -73598,6 +73613,9 @@
           <t>Run 6</t>
         </is>
       </c>
+      <c r="B7" t="n">
+        <v>14.74733333333333</v>
+      </c>
       <c r="C7" t="n">
         <v>446.5433333333333</v>
       </c>
@@ -73653,6 +73671,9 @@
           <t>Run 7</t>
         </is>
       </c>
+      <c r="B8" t="n">
+        <v>12.74783333333333</v>
+      </c>
       <c r="C8" t="n">
         <v>456.0016666666667</v>
       </c>
@@ -73708,6 +73729,9 @@
           <t>Run 8</t>
         </is>
       </c>
+      <c r="B9" t="n">
+        <v>13.10566666666667</v>
+      </c>
       <c r="C9" t="n">
         <v>440.4683333333334</v>
       </c>
@@ -73763,6 +73787,9 @@
           <t>Run 9</t>
         </is>
       </c>
+      <c r="B10" t="n">
+        <v>13.13633333333333</v>
+      </c>
       <c r="C10" t="n">
         <v>451.2516666666667</v>
       </c>
@@ -73818,6 +73845,9 @@
           <t>Run 10</t>
         </is>
       </c>
+      <c r="B11" t="n">
+        <v>14.16166666666667</v>
+      </c>
       <c r="C11" t="n">
         <v>461.3916666666667</v>
       </c>
@@ -73873,6 +73903,9 @@
           <t>Run 11</t>
         </is>
       </c>
+      <c r="B12" t="n">
+        <v>13.98333333333333</v>
+      </c>
       <c r="C12" t="n">
         <v>458.505</v>
       </c>
@@ -73928,6 +73961,9 @@
           <t>Run 12</t>
         </is>
       </c>
+      <c r="B13" t="n">
+        <v>12.27416666666667</v>
+      </c>
       <c r="C13" t="n">
         <v>434.473888888889</v>
       </c>
@@ -73983,6 +74019,9 @@
           <t>Run 13</t>
         </is>
       </c>
+      <c r="B14" t="n">
+        <v>13.91866666666667</v>
+      </c>
       <c r="C14" t="n">
         <v>457.2805555555555</v>
       </c>
@@ -74038,6 +74077,9 @@
           <t>Run 14</t>
         </is>
       </c>
+      <c r="B15" t="n">
+        <v>13.55216666666667</v>
+      </c>
       <c r="C15" t="n">
         <v>454.11</v>
       </c>
@@ -74093,6 +74135,9 @@
           <t>Run 15</t>
         </is>
       </c>
+      <c r="B16" t="n">
+        <v>13.25766666666667</v>
+      </c>
       <c r="C16" t="n">
         <v>446.5294444444446</v>
       </c>
@@ -74148,6 +74193,9 @@
           <t>Run 16</t>
         </is>
       </c>
+      <c r="B17" t="n">
+        <v>13.879</v>
+      </c>
       <c r="C17" t="n">
         <v>446.185</v>
       </c>
@@ -74203,6 +74251,9 @@
           <t>Run 17</t>
         </is>
       </c>
+      <c r="B18" t="n">
+        <v>12.27633333333333</v>
+      </c>
       <c r="C18" t="n">
         <v>432.2361111111112</v>
       </c>
@@ -74258,6 +74309,9 @@
           <t>Run 18</t>
         </is>
       </c>
+      <c r="B19" t="n">
+        <v>12.451</v>
+      </c>
       <c r="C19" t="n">
         <v>436.645</v>
       </c>
@@ -74313,6 +74367,9 @@
           <t>Run 19</t>
         </is>
       </c>
+      <c r="B20" t="n">
+        <v>13.541</v>
+      </c>
       <c r="C20" t="n">
         <v>426.515</v>
       </c>
@@ -74368,6 +74425,9 @@
           <t>Run 20</t>
         </is>
       </c>
+      <c r="B21" t="n">
+        <v>14.16583333333333</v>
+      </c>
       <c r="C21" t="n">
         <v>442.0094444444444</v>
       </c>
@@ -74423,6 +74483,9 @@
           <t>Run 21</t>
         </is>
       </c>
+      <c r="B22" t="n">
+        <v>13.58016666666667</v>
+      </c>
       <c r="C22" t="n">
         <v>414.98</v>
       </c>
@@ -74478,6 +74541,9 @@
           <t>Run 22</t>
         </is>
       </c>
+      <c r="B23" t="n">
+        <v>13.01483333333333</v>
+      </c>
       <c r="C23" t="n">
         <v>439.6777777777778</v>
       </c>
@@ -74533,6 +74599,9 @@
           <t>Run 23</t>
         </is>
       </c>
+      <c r="B24" t="n">
+        <v>14.344</v>
+      </c>
       <c r="C24" t="n">
         <v>439.2988888888888</v>
       </c>
@@ -74588,6 +74657,9 @@
           <t>Run 24</t>
         </is>
       </c>
+      <c r="B25" t="n">
+        <v>12.51766666666667</v>
+      </c>
       <c r="C25" t="n">
         <v>401.9066666666666</v>
       </c>
@@ -74643,6 +74715,9 @@
           <t>Run 25</t>
         </is>
       </c>
+      <c r="B26" t="n">
+        <v>13.272</v>
+      </c>
       <c r="C26" t="n">
         <v>424.9677777777778</v>
       </c>
@@ -74698,6 +74773,9 @@
           <t>Run 26</t>
         </is>
       </c>
+      <c r="B27" t="n">
+        <v>12.906</v>
+      </c>
       <c r="C27" t="n">
         <v>430.6983333333334</v>
       </c>
@@ -74753,6 +74831,9 @@
           <t>Run 27</t>
         </is>
       </c>
+      <c r="B28" t="n">
+        <v>12.756</v>
+      </c>
       <c r="C28" t="n">
         <v>397.2838888888889</v>
       </c>
@@ -74808,6 +74889,9 @@
           <t>Run 28</t>
         </is>
       </c>
+      <c r="B29" t="n">
+        <v>12.70416666666667</v>
+      </c>
       <c r="C29" t="n">
         <v>414.89</v>
       </c>
@@ -74863,6 +74947,9 @@
           <t>Run 29</t>
         </is>
       </c>
+      <c r="B30" t="n">
+        <v>12.06266666666667</v>
+      </c>
       <c r="C30" t="n">
         <v>405.8611111111111</v>
       </c>
@@ -74917,6 +75004,9 @@
         <is>
           <t>Run 30</t>
         </is>
+      </c>
+      <c r="B31" t="n">
+        <v>12.52933333333333</v>
       </c>
       <c r="C31" t="n">
         <v>420.2305555555555</v>
